--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.785399999999994</v>
+        <v>-6.491699999999994</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.37210000000002</v>
+        <v>-21.19850000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.433699999999998</v>
+        <v>-8.023599999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>12.44299999999999</v>
+        <v>13.15019999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.89660000000001</v>
+        <v>14.96020000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.64169999999999</v>
+        <v>13.4881</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.65729999999998</v>
+        <v>-20.61199999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.5623</v>
+        <v>-20.54199999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.868199999999997</v>
+        <v>-8.104599999999996</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>14.09560000000002</v>
+        <v>13.83230000000001</v>
       </c>
     </row>
     <row r="18">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.32419999999999</v>
+        <v>-21.19639999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.7575</v>
+        <v>12.6176</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.52730000000003</v>
+        <v>-21.41380000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.28970000000003</v>
+        <v>-22.44870000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
